--- a/Ecole Centrale de Lyon/1A/UEs/PRO/PE/Communication/Recap_Demarches.xlsx
+++ b/Ecole Centrale de Lyon/1A/UEs/PRO/PE/Communication/Recap_Demarches.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>DEMARCHAGE SPONSORS ET PARTENAIRES</t>
   </si>
@@ -116,9 +117,6 @@
     <t>Contact etabli</t>
   </si>
   <si>
-    <t>Mail en attente de reponse</t>
-  </si>
-  <si>
     <t>k.belaiche@bymycar.fr</t>
   </si>
   <si>
@@ -138,6 +136,21 @@
   </si>
   <si>
     <t>geraldine.felix@renault.com</t>
+  </si>
+  <si>
+    <t>04 78 78 50 78</t>
+  </si>
+  <si>
+    <t>doit reessayer</t>
+  </si>
+  <si>
+    <t>Rappeler Jeudi</t>
+  </si>
+  <si>
+    <t>Repondu negativement</t>
+  </si>
+  <si>
+    <t>1-fev</t>
   </si>
 </sst>
 </file>
@@ -445,15 +458,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,55 +518,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,7 +820,7 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:M18"/>
+      <selection activeCell="K11" sqref="K11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +890,10 @@
       <c r="X4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="20"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
@@ -892,13 +905,13 @@
         <v>12</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="19">
+      <c r="H5" s="28">
         <v>43123</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="20">
-        <v>43123</v>
+      <c r="K5" s="29">
+        <v>43125</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -914,74 +927,76 @@
         <v>14</v>
       </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="V5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="6"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="21"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="21">
+      <c r="G6" s="12"/>
+      <c r="H6" s="11">
         <v>43120</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="22">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13">
         <v>43123</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="8" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="27"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="24">
+      <c r="H7" s="15">
         <v>43120</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="25">
+      <c r="K7" s="16">
         <v>43123</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1001,155 +1016,159 @@
       <c r="X7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="28"/>
+      <c r="Y7" s="30"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="21">
+      <c r="G8" s="12"/>
+      <c r="H8" s="11">
         <v>43120</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="22">
-        <v>43123</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="8" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13">
+        <v>43131</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8" t="s">
+      <c r="O8" s="12"/>
+      <c r="P8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="27"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="22"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="24">
+      <c r="H9" s="15">
         <v>43120</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="25">
-        <v>43123</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="6"/>
+      <c r="K9" s="16">
+        <v>43130</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="30" t="s">
-        <v>32</v>
+      <c r="P9" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="6"/>
+      <c r="T9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="30"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="21">
+      <c r="G10" s="8"/>
+      <c r="H10" s="11">
         <v>43123</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="22">
-        <v>43123</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="8" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="27"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="22"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="24">
+      <c r="H11" s="15">
         <v>43123</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="25">
+      <c r="K11" s="16">
         <v>43123</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1163,54 +1182,54 @@
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="30"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="28"/>
+      <c r="Y11" s="30"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11">
+        <v>43123</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13">
+        <v>43123</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="21">
-        <v>43123</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="22">
-        <v>43123</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="27"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="22"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1233,36 +1252,36 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="28"/>
+      <c r="Y13" s="30"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1285,36 +1304,36 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="28"/>
+      <c r="Y15" s="30"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1337,36 +1356,36 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="28"/>
+      <c r="Y17" s="30"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="22"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1389,36 +1408,36 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="28"/>
+      <c r="Y19" s="30"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="22"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1441,36 +1460,36 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="28"/>
+      <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="22"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1493,36 +1512,36 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="28"/>
+      <c r="Y23" s="30"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="22"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1545,36 +1564,36 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="28"/>
+      <c r="Y25" s="30"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1597,36 +1616,36 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="28"/>
+      <c r="Y27" s="30"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="22"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1649,36 +1668,36 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="28"/>
+      <c r="Y29" s="30"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="22"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1701,32 +1720,32 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="28"/>
+      <c r="Y31" s="30"/>
     </row>
     <row r="32" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
       <c r="Y32" s="31"/>
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.25">
@@ -1758,28 +1777,8 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="P32:S32"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="T26:U26"/>
@@ -1791,6 +1790,31 @@
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:Y22"/>
@@ -1800,17 +1824,7 @@
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
@@ -1826,7 +1840,16 @@
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="V12:W12"/>
@@ -1834,7 +1857,8 @@
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="K31:M31"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="T6:U6"/>
@@ -1858,18 +1882,14 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="H27:J27"/>
@@ -1886,20 +1906,18 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:M30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="K22:M22"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -1909,6 +1927,8 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
@@ -1989,7 +2009,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:U4"/>
